--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="243">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -249,18 +249,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -273,22 +273,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -315,12 +309,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -333,6 +321,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -345,18 +339,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -369,10 +351,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -387,10 +369,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -405,12 +387,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -429,18 +429,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -951,7 +939,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:08:30-08:00</t>
+    <t>2023-11-15T17:15:30-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1101,84 +1089,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>221</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>224</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>225</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>226</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>227</v>
-      </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>228</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>229</v>
       </c>
-      <c r="W1" t="s" s="1">
-        <v>232</v>
-      </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="Z1" t="s" s="1">
         <v>233</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>234</v>
       </c>
-      <c r="Z1" t="s" s="1">
-        <v>237</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>238</v>
-      </c>
     </row>
     <row r="2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="AA2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1253,10 +1244,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1280,16 +1271,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
         <v>241</v>
-      </c>
-      <c r="C1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -1297,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1581,22 +1572,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1614,90 +1589,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1715,12 +1690,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1738,114 +1713,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1863,306 +1838,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2180,42 +2155,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2233,26 +2208,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2270,10 +2245,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -939,7 +939,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:15:30-08:00</t>
+    <t>2023-11-24T09:48:11-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="267">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -510,6 +510,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -552,6 +564,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -588,6 +612,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -621,6 +651,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -639,18 +675,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -675,6 +735,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -735,6 +801,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -939,7 +1011,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:48:11-08:00</t>
+    <t>2024-01-29T14:17:05-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1046,33 +1118,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="14.328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="6.05078125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="13.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="30.2109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="29.05078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="19.6171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="21.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="20.2421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="15.234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="18.0078125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="12.359375" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="5.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="11.52734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.0625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.0625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="16.921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="18.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="17.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="13.14453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1098,72 +1170,72 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="AA2" t="s">
-        <v>235</v>
+      <c r="AA2" t="s" s="28">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1250,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1195,7 +1267,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1243,11 +1315,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" t="s">
-        <v>232</v>
+      <c r="A1" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1263,38 +1335,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.80859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" t="s">
-        <v>241</v>
+      <c r="A1" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>242</v>
+      <c r="B2" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1311,266 +1383,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1588,90 +1660,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1689,12 +1761,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -1705,122 +1777,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1830,314 +1942,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2154,43 +2322,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2207,27 +2375,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2244,11 +2412,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -327,6 +327,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -432,6 +438,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -552,6 +564,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -564,6 +582,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -606,6 +630,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -645,16 +675,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -663,52 +819,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -723,18 +861,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -765,12 +903,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -783,40 +915,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -825,18 +933,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -849,36 +945,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1011,7 +1077,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:17:05-08:00</t>
+    <t>2024-04-01T14:52:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1161,73 +1227,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
@@ -1235,25 +1301,25 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1316,10 +1382,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1343,16 +1409,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
@@ -1360,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1646,6 +1712,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1653,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1661,90 +1735,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1762,12 +1844,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1785,154 +1867,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2048,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1950,362 +2056,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2323,42 +2477,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2376,26 +2530,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2413,10 +2567,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="301">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -279,6 +279,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -375,6 +381,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -456,22 +468,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -498,27 +540,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -567,7 +597,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -675,6 +705,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1077,7 +1113,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:52:15-07:00</t>
+    <t>2024-08-03T11:46:12-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1227,73 +1263,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
@@ -1301,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1319,7 +1355,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1382,10 +1418,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1409,16 +1445,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -1426,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1720,6 +1756,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1727,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1735,98 +1787,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1844,12 +1920,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1867,178 +1943,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2056,410 +2132,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2477,42 +2561,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2530,26 +2614,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2567,10 +2651,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="309">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -357,6 +357,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -381,6 +387,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -456,18 +468,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -480,13 +492,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -522,24 +540,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -642,6 +660,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1113,7 +1137,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:46:12-07:00</t>
+    <t>2025-01-08T12:46:50-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1263,73 +1287,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
@@ -1337,22 +1361,22 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1418,10 +1442,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1445,16 +1469,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
@@ -1462,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1772,6 +1796,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1779,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1787,122 +1827,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1920,12 +1968,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1943,178 +1991,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2132,418 +2188,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2561,42 +2617,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2614,26 +2670,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2651,10 +2707,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -51,11 +51,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -107,8 +107,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="347">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -303,10 +303,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -405,6 +405,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -459,6 +465,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -570,40 +588,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -612,12 +696,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -630,18 +708,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -666,48 +732,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -759,6 +795,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -777,12 +819,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -795,12 +855,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -813,12 +885,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -843,6 +933,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -885,6 +981,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -963,6 +1065,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1005,6 +1113,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1137,7 +1251,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:46:50-08:00</t>
+    <t>2025-04-24T10:52:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1287,73 +1401,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -1361,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1376,10 +1490,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1442,10 +1556,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1469,16 +1583,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -1486,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1810,6 +1924,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1827,130 +1965,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1968,12 +2106,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2121,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1991,186 +2129,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,418 +2350,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2617,42 +2891,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2670,26 +2944,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +2981,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="351">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -957,6 +957,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1026,7 +1038,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1251,7 +1263,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:52:06-07:00</t>
+    <t>2025-05-12T10:17:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1413,61 +1425,61 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
@@ -1475,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1505,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1556,10 +1568,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -1583,16 +1595,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -1600,13 +1612,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2798,26 +2810,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -2874,6 +2886,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2891,42 +2919,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2944,26 +2972,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2981,10 +3009,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -142,7 +142,7 @@
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The number of distinct color channels in the image.</t>
+        <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="355">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -282,7 +282,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -375,6 +375,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -612,6 +618,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1263,7 +1275,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:17:07-07:00</t>
+    <t>2025-06-04T14:00:13-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1413,73 +1425,73 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
@@ -1487,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1502,7 +1514,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -1568,10 +1580,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -1595,16 +1607,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
@@ -1612,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,6 +1972,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1977,130 +1997,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2118,12 +2138,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2141,210 +2161,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2362,546 +2390,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2919,42 +2947,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2972,26 +3000,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3009,10 +3037,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -30,185 +30,198 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material stored, prior to this sample being
-processed? For assays applied to tissue sections, this would be how long the
-tissue section (e.g., slide) was stored, prior to the assay beginning (e.g.,
-imaging). For assays applied to suspensions such as sequencing, this would be
-how long the suspension was stored before library construction began.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) The number of antibodies used in the assay. If no antibodies were
+utilized, enter 0. Example: 5</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
+        <t>(Required) The number of fluorescent channels that are imaged during each cycle.
+Example: 3</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) A description of the anatomical structure being captured in the
-region of interest (ROI).</t>
+        <t>(Required) The anatomical structure captured within the region of interest
+(ROI). Example: Decidua</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Multiple images are acquired from regions of interest (ROI1, ROI2,
-ROI3, etc) on a slide. The ROI ID is a number from 1 to N representing the ROI
-captured on a slide.</t>
+        <t>(Required) The identification number assigned to each region of interest (ROI)
+captured on a slide, where multiple images are acquired. The ROI ID is a
+sequential number ranging from 1 to N, representing each distinct ROI. Example:
+1</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) The acquisition_id refers to the directory containing the ROI images
-for a slide. Together, the "Acquisition ID" and the "ROI ID" indicate the
-slide-ROI represented in the image.</t>
+        <t>(Required) The unique identifier for the directory containing the Region of
+Interest (ROI) images for a slide. The combination of "Acquisition ID" and "ROI
+ID" is used to denote the specific slide-ROI depicted in the image. Example:
+HBW9901-012</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) Number of primary ions delivered to the sample per unit area.</t>
+        <t>(Required) The number of primary ions delivered to the sample per unit area. If
+this value is not applicable or not measured, this field may be left blank.
+Example: 0.1</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) Area normalized ion dose unit.</t>
+        <t>(Required) The unit of measurement for the area normalized ion dose value. If no
+ion dose normalization value, this field may be left blank. Example: nA*hr/mm2</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>(Required) Numerical data precision in bytes.</t>
+        <t>(Required) The precision of numerical data in terms of bytes. If the precision
+is not applicable or not specified, this field may be left blank. Example: 2</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>(Required) Resident time of primary ion beam on each pixel to ionize it.</t>
+        <t>(Required) The duration that the primary ion beam remains on each pixel to
+ionize it. Example: 1</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) Pixel dwell time unit.</t>
+        <t>(Required) The unit of measurement for the pixel dwell time value. If no pixel
+dwell time is recorded, this field may be left blank. Example: ms</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) This is the location of the antibodies.tsv file relative to the root
-of the top level of the upload directory structure. This path should begin with
-"." and would likely be something like "./extras/antibodies.tsv".</t>
+        <t>(Required) The path to the antibodies.tsv file relative to the root directory of
+the upload structure. This path should start with "." and is typically formatted
+as "./extras/antibodies.tsv". Example: ./extras/antibodies.tsv</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -217,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="394">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -243,34 +256,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -279,36 +430,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -339,16 +460,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -357,30 +472,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -411,18 +508,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -435,12 +520,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -453,34 +532,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -624,6 +685,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -738,12 +805,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -777,6 +856,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -885,6 +970,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -963,6 +1054,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -999,6 +1096,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1089,6 +1192,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1113,6 +1219,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1125,6 +1243,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1149,6 +1273,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1275,7 +1405,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-04T14:00:13-07:00</t>
+    <t>2025-10-20T11:47:26-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1425,87 +1555,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1514,10 +1644,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1580,10 +1710,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1607,30 +1737,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,6 +2110,70 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1997,130 +2191,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2138,12 +2332,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2161,218 +2355,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2390,546 +2608,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2947,42 +3237,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3000,26 +3290,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3037,10 +3327,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="396">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -298,6 +298,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -553,18 +559,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1405,7 +1411,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T11:47:26-07:00</t>
+    <t>2025-11-19T14:47:57-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1555,87 +1561,87 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="17">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1710,10 +1716,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -1737,30 +1743,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2174,6 +2180,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2191,130 +2205,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2332,12 +2346,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2355,242 +2369,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2608,618 +2622,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3237,42 +3251,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3290,26 +3304,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3327,10 +3341,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/mibi/latest/mibi.xlsx
+++ b/mibi/latest/mibi.xlsx
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="398">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -559,6 +559,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1411,7 +1417,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:57-08:00</t>
+    <t>2025-11-20T09:48:45-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1564,70 +1570,70 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
@@ -1635,7 +1641,7 @@
         <v>60</v>
       </c>
       <c r="AA2" t="s" s="28">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1650,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1716,10 +1722,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -1743,16 +1749,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
@@ -1760,13 +1766,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2329,6 +2335,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2346,12 +2360,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2369,242 +2383,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2622,474 +2636,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3097,143 +3111,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3251,42 +3265,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3304,26 +3318,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3355,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
